--- a/resources.xlsx
+++ b/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omkarkatta/Desktop/readings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3082E9FB-CED5-F74E-957A-C63E356ED495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E002465C-3D74-A147-A5E9-74F278796A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{4E8DA840-1CFD-A24D-8EEB-218FD546EF17}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{4E8DA840-1CFD-A24D-8EEB-218FD546EF17}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
   <si>
     <t>R</t>
   </si>
@@ -175,6 +175,102 @@
   </si>
   <si>
     <t>http://gregmankiw.blogspot.com</t>
+  </si>
+  <si>
+    <t>chan_rpackage</t>
+  </si>
+  <si>
+    <t>Chan</t>
+  </si>
+  <si>
+    <t>Fong Chun</t>
+  </si>
+  <si>
+    <t>http://tinyheero.github.io/jekyll/update/2015/07/26/making-your-first-R-package.html</t>
+  </si>
+  <si>
+    <t>Making Your First R Package</t>
+  </si>
+  <si>
+    <t>Blog_Post</t>
+  </si>
+  <si>
+    <t>R, Package Development</t>
+  </si>
+  <si>
+    <t>n_a_</t>
+  </si>
+  <si>
+    <t>https://hilaryparker.com/2014/04/29/writing-an-r-package-from-scratch/</t>
+  </si>
+  <si>
+    <t>Writing an R package from scratch</t>
+  </si>
+  <si>
+    <t>parker_rpackage</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Hilary</t>
+  </si>
+  <si>
+    <t>broman_rpackage</t>
+  </si>
+  <si>
+    <t>Broman</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>R Package Primer</t>
+  </si>
+  <si>
+    <t>https://kbroman.org/pkg_primer/</t>
+  </si>
+  <si>
+    <t>broman_simplesite</t>
+  </si>
+  <si>
+    <t>simple site</t>
+  </si>
+  <si>
+    <t>R, Website Development</t>
+  </si>
+  <si>
+    <t>https://kbroman.org/simple_site/</t>
+  </si>
+  <si>
+    <t>http://faculty.wcas.northwestern.edu/~mdo738/teaching.html</t>
+  </si>
+  <si>
+    <t>http://faculty.wcas.northwestern.edu/~mdo738/teaching/Shapiro_Presenting.pdf</t>
+  </si>
+  <si>
+    <t>/Users/omkarkatta/Desktop/readings/resources/Shapiro_Presenting.pdf</t>
+  </si>
+  <si>
+    <t>http://faculty.wcas.northwestern.edu/~mdo738/teaching/Shapiro_CodeAndData.pdf</t>
+  </si>
+  <si>
+    <t>/Users/omkarkatta/Desktop/readings/resources/Shapiro_CodeAndData.pdf</t>
+  </si>
+  <si>
+    <t>http://cameron.econ.ucdavis.edu/e240f/trmachinelearningseminar.pdf</t>
+  </si>
+  <si>
+    <t>/Users/omkarkatta/Desktop/readings/resources/trmachinelearningseminar.pdf</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>Econometrics</t>
+  </si>
+  <si>
+    <t>Game Theory</t>
   </si>
 </sst>
 </file>
@@ -526,7 +622,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAB6B3A-AEFD-134E-87CD-67439D00B0A1}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2">
+        <v>20200101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3">
+        <v>20200101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4">
+        <v>20200101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5">
+        <v>20200102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6">
+        <v>20200102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7">
+        <v>20200102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8">
+        <v>20200102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9">
+        <v>20200102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10">
+        <v>20200102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11">
+        <v>20200102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <v>20200102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A63F74F-53ED-E948-BD2B-5681D8FB8AF9}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1C0348-03FE-C148-8730-003849D2AA71}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
@@ -534,219 +973,53 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2">
-        <v>20200101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3">
-        <v>20200101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4">
-        <v>20200101</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A63F74F-53ED-E948-BD2B-5681D8FB8AF9}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1C0348-03FE-C148-8730-003849D2AA71}">
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6</v>
       </c>
@@ -754,7 +1027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7</v>
       </c>
@@ -762,7 +1035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -770,7 +1043,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -778,7 +1051,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>10</v>
       </c>
@@ -786,7 +1059,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>11</v>
       </c>
@@ -794,12 +1067,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/omkarkatta/Desktop/readings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E002465C-3D74-A147-A5E9-74F278796A3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B8923B-6E0C-064A-B308-11A303454170}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" activeTab="2" xr2:uid="{4E8DA840-1CFD-A24D-8EEB-218FD546EF17}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{4E8DA840-1CFD-A24D-8EEB-218FD546EF17}"/>
   </bookViews>
   <sheets>
     <sheet name="MASTER" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>R</t>
   </si>
@@ -271,6 +271,15 @@
   </si>
   <si>
     <t>Game Theory</t>
+  </si>
+  <si>
+    <t>https://kbroman.org/minimal_make/</t>
+  </si>
+  <si>
+    <t>https://robjhyndman.com/hyndsight/makefiles/</t>
+  </si>
+  <si>
+    <t>http://zmjones.com/make/</t>
   </si>
 </sst>
 </file>
@@ -622,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAB6B3A-AEFD-134E-87CD-67439D00B0A1}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -901,6 +910,48 @@
       </c>
       <c r="I12">
         <v>20200102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13">
+        <v>20200103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14">
+        <v>20200103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15">
+        <v>20200103</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1C0348-03FE-C148-8730-003849D2AA71}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
